--- a/finishedMatchEuro2016.xlsx
+++ b/finishedMatchEuro2016.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F7A42EE-3C13-4CA0-A1F1-307DD1AFCF89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF3C2DA-0406-48E6-9F93-EBE2A02CC69D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8698" xr2:uid="{FB15682E-3BE5-4621-B949-75CFC3748DB7}"/>
   </bookViews>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD877C4-D99A-4218-BA83-BF26B3996BB1}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -971,6 +971,1128 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
